--- a/cig2019/Assets/streamingAssets/Xlsxs/Medicine.xlsx
+++ b/cig2019/Assets/streamingAssets/Xlsxs/Medicine.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="46">
   <si>
     <t>编号</t>
   </si>
@@ -521,18 +521,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E21"/>
+  <dimension ref="A1:J21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="3" max="3" width="35.375" customWidth="1"/>
+    <col min="3" max="8" width="35.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -543,13 +543,28 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="J1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>1</v>
       </c>
@@ -559,14 +574,19 @@
       <c r="C2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D2" t="s">
-        <v>45</v>
-      </c>
-      <c r="E2">
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" t="s">
+        <v>45</v>
+      </c>
+      <c r="J2">
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>2</v>
       </c>
@@ -576,14 +596,19 @@
       <c r="C3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D3" t="s">
-        <v>45</v>
-      </c>
-      <c r="E3">
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" t="s">
+        <v>45</v>
+      </c>
+      <c r="J3">
         <v>200</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>3</v>
       </c>
@@ -593,14 +618,19 @@
       <c r="C4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D4" t="s">
-        <v>45</v>
-      </c>
-      <c r="E4">
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" t="s">
+        <v>45</v>
+      </c>
+      <c r="J4">
         <v>300</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>4</v>
       </c>
@@ -610,14 +640,19 @@
       <c r="C5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D5" t="s">
-        <v>45</v>
-      </c>
-      <c r="E5">
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" t="s">
+        <v>45</v>
+      </c>
+      <c r="J5">
         <v>400</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>5</v>
       </c>
@@ -627,14 +662,19 @@
       <c r="C6" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D6" t="s">
-        <v>45</v>
-      </c>
-      <c r="E6">
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" t="s">
+        <v>45</v>
+      </c>
+      <c r="J6">
         <v>500</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>6</v>
       </c>
@@ -644,14 +684,19 @@
       <c r="C7" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D7" t="s">
-        <v>45</v>
-      </c>
-      <c r="E7">
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" t="s">
+        <v>45</v>
+      </c>
+      <c r="J7">
         <v>600</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>7</v>
       </c>
@@ -661,14 +706,19 @@
       <c r="C8" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D8" t="s">
-        <v>45</v>
-      </c>
-      <c r="E8">
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" t="s">
+        <v>45</v>
+      </c>
+      <c r="J8">
         <v>700</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>8</v>
       </c>
@@ -678,14 +728,19 @@
       <c r="C9" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D9" t="s">
-        <v>45</v>
-      </c>
-      <c r="E9">
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" t="s">
+        <v>45</v>
+      </c>
+      <c r="J9">
         <v>800</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>9</v>
       </c>
@@ -695,14 +750,19 @@
       <c r="C10" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D10" t="s">
-        <v>45</v>
-      </c>
-      <c r="E10">
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" t="s">
+        <v>45</v>
+      </c>
+      <c r="J10">
         <v>900</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>10</v>
       </c>
@@ -712,14 +772,19 @@
       <c r="C11" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D11" t="s">
-        <v>45</v>
-      </c>
-      <c r="E11">
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" t="s">
+        <v>45</v>
+      </c>
+      <c r="J11">
         <v>1000</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>11</v>
       </c>
@@ -729,14 +794,19 @@
       <c r="C12" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D12" t="s">
-        <v>45</v>
-      </c>
-      <c r="E12">
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" t="s">
+        <v>45</v>
+      </c>
+      <c r="J12">
         <v>1100</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>12</v>
       </c>
@@ -746,14 +816,19 @@
       <c r="C13" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D13" t="s">
-        <v>45</v>
-      </c>
-      <c r="E13">
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" t="s">
+        <v>45</v>
+      </c>
+      <c r="J13">
         <v>1200</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>13</v>
       </c>
@@ -763,14 +838,19 @@
       <c r="C14" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D14" t="s">
-        <v>45</v>
-      </c>
-      <c r="E14">
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" t="s">
+        <v>45</v>
+      </c>
+      <c r="J14">
         <v>1300</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A15">
         <v>14</v>
       </c>
@@ -780,14 +860,19 @@
       <c r="C15" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D15" t="s">
-        <v>45</v>
-      </c>
-      <c r="E15">
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" t="s">
+        <v>45</v>
+      </c>
+      <c r="J15">
         <v>1400</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A16">
         <v>15</v>
       </c>
@@ -797,14 +882,19 @@
       <c r="C16" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D16" t="s">
-        <v>45</v>
-      </c>
-      <c r="E16">
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" t="s">
+        <v>45</v>
+      </c>
+      <c r="J16">
         <v>1500</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A17">
         <v>16</v>
       </c>
@@ -814,14 +904,19 @@
       <c r="C17" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D17" t="s">
-        <v>45</v>
-      </c>
-      <c r="E17">
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" t="s">
+        <v>45</v>
+      </c>
+      <c r="J17">
         <v>1600</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A18">
         <v>17</v>
       </c>
@@ -831,14 +926,19 @@
       <c r="C18" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D18" t="s">
-        <v>45</v>
-      </c>
-      <c r="E18">
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" t="s">
+        <v>45</v>
+      </c>
+      <c r="J18">
         <v>1700</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A19">
         <v>18</v>
       </c>
@@ -848,14 +948,19 @@
       <c r="C19" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D19" t="s">
-        <v>45</v>
-      </c>
-      <c r="E19">
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" t="s">
+        <v>45</v>
+      </c>
+      <c r="J19">
         <v>1800</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A20">
         <v>19</v>
       </c>
@@ -865,14 +970,19 @@
       <c r="C20" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D20" t="s">
-        <v>45</v>
-      </c>
-      <c r="E20">
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" t="s">
+        <v>45</v>
+      </c>
+      <c r="J20">
         <v>1900</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A21">
         <v>20</v>
       </c>
@@ -882,10 +992,15 @@
       <c r="C21" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D21" t="s">
-        <v>45</v>
-      </c>
-      <c r="E21">
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+      <c r="I21" t="s">
+        <v>45</v>
+      </c>
+      <c r="J21">
         <v>2000</v>
       </c>
     </row>

--- a/cig2019/Assets/streamingAssets/Xlsxs/Medicine.xlsx
+++ b/cig2019/Assets/streamingAssets/Xlsxs/Medicine.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\U3D\cigagamejam2019\cig2019\Assets\streamingAssets\Xlsxs\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15000" windowHeight="8115"/>
+    <workbookView windowWidth="25600" windowHeight="10670"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="46">
   <si>
     <t>编号</t>
   </si>
@@ -44,6 +39,12 @@
     <t>10000000000000000000000000000000</t>
   </si>
   <si>
+    <t>11111111111111101111000011100000</t>
+  </si>
+  <si>
+    <t>white</t>
+  </si>
+  <si>
     <t>双个</t>
   </si>
   <si>
@@ -59,9 +60,6 @@
     <t>心</t>
   </si>
   <si>
-    <t>11111111111111101111000011100000</t>
-  </si>
-  <si>
     <t>飞镖</t>
   </si>
   <si>
@@ -156,17 +154,19 @@
   </si>
   <si>
     <t>00000111000010100000000000000000</t>
-  </si>
-  <si>
-    <t>white</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+  </numFmts>
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -175,28 +175,345 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -204,13 +521,255 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -218,17 +777,61 @@
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -277,7 +880,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -312,7 +915,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -515,24 +1118,24 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:J21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="3" max="8" width="35.375" customWidth="1"/>
+    <col min="3" max="8" width="35.3727272727273" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:10">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -564,7 +1167,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:10">
       <c r="A2">
         <v>1</v>
       </c>
@@ -574,467 +1177,673 @@
       <c r="C2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
+      <c r="D2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="I2" t="s">
-        <v>45</v>
+        <v>8</v>
       </c>
       <c r="J2">
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:10">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
+        <v>10</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="I3" t="s">
-        <v>45</v>
+        <v>8</v>
       </c>
       <c r="J3">
         <v>200</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:10">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
+        <v>12</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="I4" t="s">
-        <v>45</v>
+        <v>8</v>
       </c>
       <c r="J4">
         <v>300</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:10">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
+        <v>7</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="I5" t="s">
-        <v>45</v>
+        <v>8</v>
       </c>
       <c r="J5">
         <v>400</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:10">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
+        <v>15</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="I6" t="s">
-        <v>45</v>
+        <v>8</v>
       </c>
       <c r="J6">
         <v>500</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:10">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
+        <v>17</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="I7" t="s">
-        <v>45</v>
+        <v>8</v>
       </c>
       <c r="J7">
         <v>600</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:10">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
+        <v>19</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>19</v>
+      </c>
       <c r="I8" t="s">
-        <v>45</v>
+        <v>8</v>
       </c>
       <c r="J8">
         <v>700</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:10">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
+        <v>21</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>21</v>
+      </c>
       <c r="I9" t="s">
-        <v>45</v>
+        <v>8</v>
       </c>
       <c r="J9">
         <v>800</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:10">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
+        <v>23</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="I10" t="s">
-        <v>45</v>
+        <v>8</v>
       </c>
       <c r="J10">
         <v>900</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:10">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
+        <v>25</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>25</v>
+      </c>
       <c r="I11" t="s">
-        <v>45</v>
+        <v>8</v>
       </c>
       <c r="J11">
         <v>1000</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:10">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
+        <v>27</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>27</v>
+      </c>
       <c r="I12" t="s">
-        <v>45</v>
+        <v>8</v>
       </c>
       <c r="J12">
         <v>1100</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:10">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
+        <v>29</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>29</v>
+      </c>
       <c r="I13" t="s">
-        <v>45</v>
+        <v>8</v>
       </c>
       <c r="J13">
         <v>1200</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:10">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
+        <v>31</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>31</v>
+      </c>
       <c r="I14" t="s">
-        <v>45</v>
+        <v>8</v>
       </c>
       <c r="J14">
         <v>1300</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:10">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
+        <v>33</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>33</v>
+      </c>
       <c r="I15" t="s">
-        <v>45</v>
+        <v>8</v>
       </c>
       <c r="J15">
         <v>1400</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:10">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
+        <v>35</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>35</v>
+      </c>
       <c r="I16" t="s">
-        <v>45</v>
+        <v>8</v>
       </c>
       <c r="J16">
         <v>1500</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:10">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
+        <v>37</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>37</v>
+      </c>
       <c r="I17" t="s">
-        <v>45</v>
+        <v>8</v>
       </c>
       <c r="J17">
         <v>1600</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:10">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
+        <v>39</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>39</v>
+      </c>
       <c r="I18" t="s">
-        <v>45</v>
+        <v>8</v>
       </c>
       <c r="J18">
         <v>1700</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:10">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
+        <v>41</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>41</v>
+      </c>
       <c r="I19" t="s">
-        <v>45</v>
+        <v>8</v>
       </c>
       <c r="J19">
         <v>1800</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:10">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
-      <c r="H20" s="1"/>
+        <v>43</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>43</v>
+      </c>
       <c r="I20" t="s">
-        <v>45</v>
+        <v>8</v>
       </c>
       <c r="J20">
         <v>1900</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:10">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
+        <v>45</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>45</v>
+      </c>
       <c r="I21" t="s">
-        <v>45</v>
+        <v>8</v>
       </c>
       <c r="J21">
         <v>2000</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <sheetData/>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <sheetData/>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/cig2019/Assets/streamingAssets/Xlsxs/Medicine.xlsx
+++ b/cig2019/Assets/streamingAssets/Xlsxs/Medicine.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\U3D\cigagamejam2019\cig2019\Assets\Resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\U3D\cigagamejam2019\cig2019\Assets\streamingAssets\Xlsxs\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -515,7 +515,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -550,7 +550,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -762,7 +762,7 @@
   <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+      <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -967,7 +967,7 @@
         <v>4</v>
       </c>
       <c r="J6">
-        <v>1000</v>
+        <v>700</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.15">
@@ -999,7 +999,7 @@
         <v>6</v>
       </c>
       <c r="J7">
-        <v>1500</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.15">
@@ -1031,7 +1031,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>500</v>
+        <v>300</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.15">
@@ -1063,7 +1063,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>1500</v>
+        <v>500</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.15">
@@ -1095,7 +1095,7 @@
         <v>5</v>
       </c>
       <c r="J10">
-        <v>2000</v>
+        <v>100</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.15">
@@ -1159,7 +1159,7 @@
         <v>5</v>
       </c>
       <c r="J12">
-        <v>2000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.15">
@@ -1191,7 +1191,7 @@
         <v>8</v>
       </c>
       <c r="J13">
-        <v>1000</v>
+        <v>500</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.15">
@@ -1223,7 +1223,7 @@
         <v>9</v>
       </c>
       <c r="J14">
-        <v>1200</v>
+        <v>400</v>
       </c>
     </row>
   </sheetData>
